--- a/Models/Prospective_conso/data/Hypotheses_tertiaire_3D.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_tertiaire_3D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{85B50F5E-9EAE-472C-8E95-E0DB3D5701DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A3D276-5694-44E9-BA86-816F27FB0F23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C698F47-BFEC-E344-A35D-4C99A14D8DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{5BD63338-70FF-E44E-832A-7D95C71F0A33}"/>
+    <workbookView xWindow="20520" yWindow="1280" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{5BD63338-70FF-E44E-832A-7D95C71F0A33}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="10" r:id="rId1"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -169,9 +167,6 @@
     <t>Efficiency_class</t>
   </si>
   <si>
-    <t>init_Besoin_surfacique</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -407,6 +402,9 @@
   </si>
   <si>
     <t>0.66</t>
+  </si>
+  <si>
+    <t>init_energy_need_per_surface</t>
   </si>
 </sst>
 </file>
@@ -543,7 +541,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -845,13 +843,13 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -867,7 +865,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,7 +873,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -896,21 +894,21 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="8.875"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="23.875" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -945,7 +943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -956,31 +954,31 @@
         <v>2020</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -991,31 +989,31 @@
         <v>2020</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1026,31 +1024,31 @@
         <v>2020</v>
       </c>
       <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1061,31 +1059,31 @@
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1096,31 +1094,31 @@
         <v>2020</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1131,31 +1129,31 @@
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1166,31 +1164,31 @@
         <v>2020</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1201,31 +1199,31 @@
         <v>2020</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1236,31 +1234,31 @@
         <v>2020</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1271,31 +1269,31 @@
         <v>2020</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1306,31 +1304,31 @@
         <v>2020</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1341,31 +1339,31 @@
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1376,31 +1374,31 @@
         <v>2020</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1411,31 +1409,31 @@
         <v>2020</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1446,31 +1444,31 @@
         <v>2020</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1481,31 +1479,31 @@
         <v>2020</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1516,31 +1514,31 @@
         <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1551,31 +1549,31 @@
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1586,31 +1584,31 @@
         <v>2020</v>
       </c>
       <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" t="s">
         <v>65</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" t="s">
-        <v>66</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1621,31 +1619,31 @@
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1656,31 +1654,31 @@
         <v>2020</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1691,31 +1689,31 @@
         <v>2020</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1726,31 +1724,31 @@
         <v>2020</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1761,31 +1759,31 @@
         <v>2020</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1796,31 +1794,31 @@
         <v>2020</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1831,31 +1829,31 @@
         <v>2020</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1866,31 +1864,31 @@
         <v>2020</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1901,31 +1899,31 @@
         <v>2020</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1936,31 +1934,31 @@
         <v>2020</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1971,31 +1969,31 @@
         <v>2020</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2006,31 +2004,31 @@
         <v>2020</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2041,31 +2039,31 @@
         <v>2020</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2076,31 +2074,31 @@
         <v>2020</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2111,31 +2109,31 @@
         <v>2020</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2146,31 +2144,31 @@
         <v>2020</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2181,31 +2179,31 @@
         <v>2020</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2216,31 +2214,31 @@
         <v>2020</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2251,31 +2249,31 @@
         <v>2020</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2286,31 +2284,31 @@
         <v>2020</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2321,31 +2319,31 @@
         <v>2020</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2356,31 +2354,31 @@
         <v>2020</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2391,31 +2389,31 @@
         <v>2020</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2426,31 +2424,31 @@
         <v>2020</v>
       </c>
       <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
         <v>64</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>65</v>
-      </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2461,31 +2459,31 @@
         <v>2020</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2496,31 +2494,31 @@
         <v>2020</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2531,31 +2529,31 @@
         <v>2020</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2566,31 +2564,31 @@
         <v>2020</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2601,31 +2599,31 @@
         <v>2020</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2636,31 +2634,31 @@
         <v>2020</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2671,31 +2669,31 @@
         <v>2020</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2706,31 +2704,31 @@
         <v>2020</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2741,31 +2739,31 @@
         <v>2020</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -2776,31 +2774,31 @@
         <v>2020</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s">
+        <v>88</v>
+      </c>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s">
         <v>89</v>
       </c>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-      <c r="J54" t="s">
-        <v>90</v>
-      </c>
       <c r="K54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -2811,31 +2809,31 @@
         <v>2020</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2846,31 +2844,31 @@
         <v>2020</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2881,31 +2879,31 @@
         <v>2020</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -2916,31 +2914,31 @@
         <v>2020</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2951,31 +2949,31 @@
         <v>2020</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -2986,31 +2984,31 @@
         <v>2020</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -3021,31 +3019,31 @@
         <v>2020</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -3056,31 +3054,31 @@
         <v>2020</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -3091,31 +3089,31 @@
         <v>2020</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -3126,31 +3124,31 @@
         <v>2020</v>
       </c>
       <c r="D64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -3161,25 +3159,25 @@
         <v>2020</v>
       </c>
       <c r="D65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -3198,14 +3196,14 @@
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3233,7 +3231,7 @@
         <v>1730417</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3247,7 +3245,7 @@
         <v>526649</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3261,7 +3259,7 @@
         <v>1655181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3275,7 +3273,7 @@
         <v>1429475</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3289,7 +3287,7 @@
         <v>526649</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3303,7 +3301,7 @@
         <v>902826</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3317,7 +3315,7 @@
         <v>526649</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3344,13 +3342,13 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3358,7 +3356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2020</v>
       </c>
@@ -3366,7 +3364,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2021</v>
       </c>
@@ -3374,7 +3372,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -3382,7 +3380,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2023</v>
       </c>
@@ -3390,7 +3388,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2024</v>
       </c>
@@ -3398,7 +3396,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2025</v>
       </c>
@@ -3406,7 +3404,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2026</v>
       </c>
@@ -3414,7 +3412,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2027</v>
       </c>
@@ -3422,7 +3420,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2028</v>
       </c>
@@ -3430,7 +3428,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2029</v>
       </c>
@@ -3438,7 +3436,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2030</v>
       </c>
@@ -3446,7 +3444,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2031</v>
       </c>
@@ -3454,7 +3452,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2032</v>
       </c>
@@ -3462,7 +3460,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2033</v>
       </c>
@@ -3470,7 +3468,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2034</v>
       </c>
@@ -3478,7 +3476,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2035</v>
       </c>
@@ -3486,7 +3484,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2036</v>
       </c>
@@ -3494,7 +3492,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2037</v>
       </c>
@@ -3502,7 +3500,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2038</v>
       </c>
@@ -3510,7 +3508,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2039</v>
       </c>
@@ -3518,7 +3516,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2040</v>
       </c>
@@ -3526,7 +3524,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2041</v>
       </c>
@@ -3534,7 +3532,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2042</v>
       </c>
@@ -3542,7 +3540,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2043</v>
       </c>
@@ -3550,7 +3548,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2044</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2045</v>
       </c>
@@ -3566,7 +3564,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2046</v>
       </c>
@@ -3574,7 +3572,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2047</v>
       </c>
@@ -3582,7 +3580,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2048</v>
       </c>
@@ -3590,7 +3588,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2049</v>
       </c>
@@ -3598,7 +3596,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2050</v>
       </c>
@@ -3619,13 +3617,13 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3642,7 +3640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3659,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3693,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3710,7 +3708,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3727,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3744,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3761,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3789,74 +3787,74 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>42</v>
-      </c>
-      <c r="B2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
       </c>
       <c r="B3">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>546</v>
@@ -3876,14 +3874,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3891,10 +3889,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3902,10 +3900,10 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3913,10 +3911,10 @@
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3924,10 +3922,10 @@
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3935,10 +3933,10 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3946,10 +3944,10 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3957,10 +3955,10 @@
         <v>2020</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3968,10 +3966,10 @@
         <v>2020</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3979,10 +3977,10 @@
         <v>2020</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3990,10 +3988,10 @@
         <v>2035</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4001,10 +3999,10 @@
         <v>2035</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4012,10 +4010,10 @@
         <v>2035</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4026,7 +4024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4034,10 +4032,10 @@
         <v>2035</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4045,10 +4043,10 @@
         <v>2035</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4056,10 +4054,10 @@
         <v>2035</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4067,10 +4065,10 @@
         <v>2035</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -4078,10 +4076,10 @@
         <v>2050</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4089,10 +4087,10 @@
         <v>2050</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4100,10 +4098,10 @@
         <v>2050</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -4114,7 +4112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4122,10 +4120,10 @@
         <v>2050</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4133,10 +4131,10 @@
         <v>2050</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4144,10 +4142,10 @@
         <v>2050</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4155,7 +4153,7 @@
         <v>2050</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4172,14 +4170,14 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4187,10 +4185,10 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4198,10 +4196,10 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4209,10 +4207,10 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4220,10 +4218,10 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4231,10 +4229,10 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4242,10 +4240,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4253,10 +4251,10 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4264,10 +4262,10 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4275,10 +4273,10 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4286,10 +4284,10 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4297,10 +4295,10 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4308,10 +4306,10 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4319,10 +4317,10 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4330,10 +4328,10 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4341,10 +4339,10 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4352,10 +4350,10 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4363,10 +4361,10 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -4374,10 +4372,10 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4385,10 +4383,10 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4396,10 +4394,10 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -4407,10 +4405,10 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4418,10 +4416,10 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4429,10 +4427,10 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4440,10 +4438,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4451,10 +4449,10 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4462,10 +4460,10 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -4473,10 +4471,10 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4484,10 +4482,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -4495,10 +4493,10 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -4506,10 +4504,10 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -4517,10 +4515,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -4528,10 +4526,10 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4539,10 +4537,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -4550,10 +4548,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -4561,10 +4559,10 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -4572,10 +4570,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -4583,10 +4581,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -4594,10 +4592,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -4605,10 +4603,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -4616,10 +4614,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -4627,10 +4625,10 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -4638,10 +4636,10 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -4649,10 +4647,10 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -4660,10 +4658,10 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4671,10 +4669,10 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -4682,10 +4680,10 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -4693,10 +4691,10 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -4704,10 +4702,10 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -4715,10 +4713,10 @@
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -4726,10 +4724,10 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -4737,10 +4735,10 @@
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4748,10 +4746,10 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -4759,10 +4757,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -4770,10 +4768,10 @@
         <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -4781,10 +4779,10 @@
         <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -4792,10 +4790,10 @@
         <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -4803,10 +4801,10 @@
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -4814,10 +4812,10 @@
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -4825,10 +4823,10 @@
         <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4836,10 +4834,10 @@
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -4847,10 +4845,10 @@
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -4858,10 +4856,10 @@
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -4869,10 +4867,10 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -4880,10 +4878,10 @@
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4907,14 +4905,14 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="46.125" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4928,13 +4926,13 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4942,19 +4940,19 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4962,19 +4960,19 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>2020</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4982,19 +4980,19 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>2020</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5002,19 +5000,19 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>2020</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5022,19 +5020,19 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>2020</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5042,19 +5040,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>2020</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5062,19 +5060,19 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>2020</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5082,19 +5080,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>2020</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5102,19 +5100,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>2020</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5122,19 +5120,19 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>2020</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5142,19 +5140,19 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>2020</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5162,19 +5160,19 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -5182,19 +5180,19 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5202,19 +5200,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>2020</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5222,19 +5220,19 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>2020</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5242,19 +5240,19 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>2020</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5262,19 +5260,19 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>2020</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -5282,19 +5280,19 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>2020</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -5302,19 +5300,19 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>2020</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -5322,19 +5320,19 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>2020</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -5342,19 +5340,19 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>2020</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5362,19 +5360,19 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>2020</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5382,19 +5380,19 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24">
         <v>2020</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5402,19 +5400,19 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <v>2020</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -5422,19 +5420,19 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>2020</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -5442,19 +5440,19 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -5462,19 +5460,19 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -5482,19 +5480,19 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -5502,19 +5500,19 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -5522,19 +5520,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>2020</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -5542,19 +5540,19 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32">
         <v>2020</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -5562,19 +5560,19 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -5582,19 +5580,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34">
         <v>2020</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -5602,19 +5600,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <v>2020</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -5622,19 +5620,19 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36">
         <v>2020</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5642,19 +5640,19 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <v>2020</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -5662,19 +5660,19 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38">
         <v>2020</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -5682,19 +5680,19 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39">
         <v>2020</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -5702,19 +5700,19 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <v>2020</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -5722,19 +5720,19 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41">
         <v>2020</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -5742,19 +5740,19 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42">
         <v>2020</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -5762,19 +5760,19 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43">
         <v>2020</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -5782,19 +5780,19 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <v>2020</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -5802,19 +5800,19 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45">
         <v>2020</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F45">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -5822,19 +5820,19 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46">
         <v>2020</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -5842,19 +5840,19 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47">
         <v>2020</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -5862,19 +5860,19 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48">
         <v>2020</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -5882,19 +5880,19 @@
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49">
         <v>2020</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -5902,19 +5900,19 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50">
         <v>2020</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -5922,19 +5920,19 @@
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51">
         <v>2020</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -5942,19 +5940,19 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52">
         <v>2020</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -5962,19 +5960,19 @@
         <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53">
         <v>2020</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -5982,19 +5980,19 @@
         <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D54">
         <v>2020</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -6002,19 +6000,19 @@
         <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55">
         <v>2020</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F55">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -6022,19 +6020,19 @@
         <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56">
         <v>2020</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F56">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -6042,19 +6040,19 @@
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57">
         <v>2020</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -6062,19 +6060,19 @@
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58">
         <v>2020</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -6082,19 +6080,19 @@
         <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D59">
         <v>2020</v>
       </c>
       <c r="E59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F59">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -6102,19 +6100,19 @@
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D60">
         <v>2020</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F60">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -6122,19 +6120,19 @@
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D61">
         <v>2020</v>
       </c>
       <c r="E61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F61">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -6142,19 +6140,19 @@
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D62">
         <v>2020</v>
       </c>
       <c r="E62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F62">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -6162,19 +6160,19 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63">
         <v>2020</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -6182,19 +6180,19 @@
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64">
         <v>2020</v>
       </c>
       <c r="E64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F64">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6202,19 +6200,19 @@
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65">
         <v>2020</v>
       </c>
       <c r="E65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F65">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -6222,19 +6220,19 @@
         <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D66">
         <v>2025</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F66">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -6242,19 +6240,19 @@
         <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D67">
         <v>2025</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F67">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -6262,19 +6260,19 @@
         <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68">
         <v>2025</v>
       </c>
       <c r="E68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F68">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -6282,19 +6280,19 @@
         <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69">
         <v>2025</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F69">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -6302,19 +6300,19 @@
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D70">
         <v>2025</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F70">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -6322,19 +6320,19 @@
         <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D71">
         <v>2025</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F71">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -6342,19 +6340,19 @@
         <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D72">
         <v>2025</v>
       </c>
       <c r="E72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F72">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -6362,19 +6360,19 @@
         <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D73">
         <v>2025</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F73">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -6382,19 +6380,19 @@
         <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D74">
         <v>2025</v>
       </c>
       <c r="E74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F74">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -6402,19 +6400,19 @@
         <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D75">
         <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F75">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -6422,19 +6420,19 @@
         <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D76">
         <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F76">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -6442,19 +6440,19 @@
         <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D77">
         <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F77">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -6462,19 +6460,19 @@
         <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D78">
         <v>2025</v>
       </c>
       <c r="E78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F78">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -6482,19 +6480,19 @@
         <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D79">
         <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F79">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -6502,19 +6500,19 @@
         <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D80">
         <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F80">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -6522,19 +6520,19 @@
         <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D81">
         <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F81">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -6542,19 +6540,19 @@
         <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D82">
         <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F82">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -6562,19 +6560,19 @@
         <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D83">
         <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F83">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -6582,19 +6580,19 @@
         <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D84">
         <v>2025</v>
       </c>
       <c r="E84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -6602,19 +6600,19 @@
         <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D85">
         <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -6622,19 +6620,19 @@
         <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D86">
         <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F86">
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -6642,19 +6640,19 @@
         <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D87">
         <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F87">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -6662,19 +6660,19 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D88">
         <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F88">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -6682,19 +6680,19 @@
         <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D89">
         <v>2025</v>
       </c>
       <c r="E89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F89">
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -6702,19 +6700,19 @@
         <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D90">
         <v>2025</v>
       </c>
       <c r="E90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F90">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -6722,19 +6720,19 @@
         <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D91">
         <v>2025</v>
       </c>
       <c r="E91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F91">
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -6742,19 +6740,19 @@
         <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D92">
         <v>2025</v>
       </c>
       <c r="E92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F92">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -6762,19 +6760,19 @@
         <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D93">
         <v>2025</v>
       </c>
       <c r="E93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F93">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -6782,19 +6780,19 @@
         <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D94">
         <v>2025</v>
       </c>
       <c r="E94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F94">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -6802,19 +6800,19 @@
         <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D95">
         <v>2025</v>
       </c>
       <c r="E95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F95">
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -6822,19 +6820,19 @@
         <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D96">
         <v>2025</v>
       </c>
       <c r="E96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F96">
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -6842,19 +6840,19 @@
         <v>35</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D97">
         <v>2025</v>
       </c>
       <c r="E97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F97">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -6862,19 +6860,19 @@
         <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D98">
         <v>2025</v>
       </c>
       <c r="E98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F98">
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -6882,19 +6880,19 @@
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D99">
         <v>2025</v>
       </c>
       <c r="E99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F99">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -6902,19 +6900,19 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D100">
         <v>2025</v>
       </c>
       <c r="E100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F100">
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -6922,19 +6920,19 @@
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D101">
         <v>2025</v>
       </c>
       <c r="E101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F101">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -6942,19 +6940,19 @@
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D102">
         <v>2025</v>
       </c>
       <c r="E102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F102">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -6962,19 +6960,19 @@
         <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D103">
         <v>2025</v>
       </c>
       <c r="E103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F103">
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -6982,19 +6980,19 @@
         <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104">
         <v>2025</v>
       </c>
       <c r="E104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F104">
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -7002,19 +7000,19 @@
         <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D105">
         <v>2025</v>
       </c>
       <c r="E105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F105">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -7022,19 +7020,19 @@
         <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D106">
         <v>2025</v>
       </c>
       <c r="E106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F106">
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -7042,19 +7040,19 @@
         <v>36</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D107">
         <v>2025</v>
       </c>
       <c r="E107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F107">
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -7062,19 +7060,19 @@
         <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D108">
         <v>2025</v>
       </c>
       <c r="E108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F108">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -7082,19 +7080,19 @@
         <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D109">
         <v>2025</v>
       </c>
       <c r="E109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F109">
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -7102,19 +7100,19 @@
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D110">
         <v>2025</v>
       </c>
       <c r="E110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F110">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -7122,19 +7120,19 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D111">
         <v>2025</v>
       </c>
       <c r="E111" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F111">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -7142,19 +7140,19 @@
         <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D112">
         <v>2025</v>
       </c>
       <c r="E112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F112">
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -7162,19 +7160,19 @@
         <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D113">
         <v>2025</v>
       </c>
       <c r="E113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F113">
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -7182,19 +7180,19 @@
         <v>39</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D114">
         <v>2025</v>
       </c>
       <c r="E114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F114">
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -7202,19 +7200,19 @@
         <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D115">
         <v>2025</v>
       </c>
       <c r="E115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F115">
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -7222,19 +7220,19 @@
         <v>39</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D116">
         <v>2025</v>
       </c>
       <c r="E116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F116">
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -7242,19 +7240,19 @@
         <v>39</v>
       </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D117">
         <v>2025</v>
       </c>
       <c r="E117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F117">
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7262,19 +7260,19 @@
         <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D118">
         <v>2025</v>
       </c>
       <c r="E118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F118">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -7282,19 +7280,19 @@
         <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D119">
         <v>2025</v>
       </c>
       <c r="E119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F119">
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -7302,19 +7300,19 @@
         <v>39</v>
       </c>
       <c r="C120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D120">
         <v>2025</v>
       </c>
       <c r="E120" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F120">
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -7322,19 +7320,19 @@
         <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D121">
         <v>2025</v>
       </c>
       <c r="E121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F121">
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -7342,19 +7340,19 @@
         <v>37</v>
       </c>
       <c r="C122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D122">
         <v>2025</v>
       </c>
       <c r="E122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F122">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -7362,19 +7360,19 @@
         <v>37</v>
       </c>
       <c r="C123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D123">
         <v>2025</v>
       </c>
       <c r="E123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F123">
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -7382,19 +7380,19 @@
         <v>37</v>
       </c>
       <c r="C124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D124">
         <v>2025</v>
       </c>
       <c r="E124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F124">
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -7402,19 +7400,19 @@
         <v>37</v>
       </c>
       <c r="C125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D125">
         <v>2025</v>
       </c>
       <c r="E125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F125">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7422,19 +7420,19 @@
         <v>37</v>
       </c>
       <c r="C126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D126">
         <v>2025</v>
       </c>
       <c r="E126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F126">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -7442,19 +7440,19 @@
         <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D127">
         <v>2025</v>
       </c>
       <c r="E127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F127">
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -7462,19 +7460,19 @@
         <v>37</v>
       </c>
       <c r="C128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D128">
         <v>2025</v>
       </c>
       <c r="E128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F128">
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -7482,13 +7480,13 @@
         <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D129">
         <v>2025</v>
       </c>
       <c r="E129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F129">
         <v>50</v>
@@ -7507,15 +7505,15 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7523,623 +7521,623 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Prospective_conso/data/Hypotheses_tertiaire_3D.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_tertiaire_3D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C698F47-BFEC-E344-A35D-4C99A14D8DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D772E8-E571-044F-A5BA-6ABC22F880D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20520" yWindow="1280" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{5BD63338-70FF-E44E-832A-7D95C71F0A33}"/>
+    <workbookView xWindow="2260" yWindow="2380" windowWidth="29040" windowHeight="15840" xr2:uid="{5BD63338-70FF-E44E-832A-7D95C71F0A33}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="10" r:id="rId1"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306386C6-5212-9F4A-B96C-43392ADD55D0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65FC289-46A9-3B44-87A9-8E03F747F039}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3193,11 +3193,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
     <col min="3" max="3" width="34.83203125" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
@@ -3787,12 +3788,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A8" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3871,7 +3873,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4167,14 +4169,14 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">

--- a/Models/Prospective_conso/data/Hypotheses_tertiaire_3D.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_tertiaire_3D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D772E8-E571-044F-A5BA-6ABC22F880D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A4D772E8-E571-044F-A5BA-6ABC22F880D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED664A1-A93F-4163-8A1F-6C3D369E8ED5}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="2380" windowWidth="29040" windowHeight="15840" xr2:uid="{5BD63338-70FF-E44E-832A-7D95C71F0A33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{5BD63338-70FF-E44E-832A-7D95C71F0A33}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Categories_Efficiency_class" sheetId="4" r:id="rId9"/>
     <sheet name="retrofit_Transition" sheetId="6" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Categories_Energy_source!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="120">
   <si>
     <t>Nom</t>
   </si>
@@ -252,9 +255,6 @@
   </si>
   <si>
     <t>0.27</t>
-  </si>
-  <si>
-    <t>0.35</t>
   </si>
   <si>
     <t>0.38</t>
@@ -500,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -523,6 +523,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +542,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -839,17 +840,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306386C6-5212-9F4A-B96C-43392ADD55D0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.19921875" customWidth="1"/>
+    <col min="2" max="2" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -865,7 +866,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -873,7 +874,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -894,21 +895,21 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125"/>
+    <col min="1" max="1" width="26.296875" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.796875"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -943,7 +944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -954,31 +955,31 @@
         <v>2020</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -995,25 +996,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1033,22 +1034,22 @@
         <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1059,31 +1060,31 @@
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1100,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1129,31 +1130,31 @@
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1164,31 +1165,31 @@
         <v>2020</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1199,31 +1200,31 @@
         <v>2020</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1234,31 +1235,31 @@
         <v>2020</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1275,16 +1276,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
         <v>68</v>
@@ -1293,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1310,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
         <v>65</v>
@@ -1328,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1339,31 +1340,31 @@
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1380,25 +1381,25 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
         <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1409,31 +1410,31 @@
         <v>2020</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1444,31 +1445,31 @@
         <v>2020</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1479,31 +1480,31 @@
         <v>2020</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1514,31 +1515,31 @@
         <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1555,25 +1556,25 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
         <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1590,16 +1591,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
         <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
         <v>65</v>
@@ -1608,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1619,31 +1620,31 @@
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1660,25 +1661,25 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
         <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1689,31 +1690,31 @@
         <v>2020</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1724,31 +1725,31 @@
         <v>2020</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1759,31 +1760,31 @@
         <v>2020</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1794,31 +1795,31 @@
         <v>2020</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1835,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
         <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J27" t="s">
         <v>50</v>
@@ -1853,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1876,10 +1877,10 @@
         <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
@@ -1888,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1899,31 +1900,31 @@
         <v>2020</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1940,25 +1941,25 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
         <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1969,31 +1970,31 @@
         <v>2020</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2004,31 +2005,31 @@
         <v>2020</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2039,31 +2040,31 @@
         <v>2020</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2074,31 +2075,31 @@
         <v>2020</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2115,25 +2116,25 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
         <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2156,19 +2157,19 @@
         <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2179,31 +2180,31 @@
         <v>2020</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2220,25 +2221,25 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
         <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2249,31 +2250,31 @@
         <v>2020</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2284,31 +2285,31 @@
         <v>2020</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2319,31 +2320,31 @@
         <v>2020</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2354,31 +2355,31 @@
         <v>2020</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2395,16 +2396,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J43" t="s">
         <v>67</v>
@@ -2413,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2433,22 +2434,22 @@
         <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2459,31 +2460,31 @@
         <v>2020</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2500,25 +2501,25 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2529,31 +2530,31 @@
         <v>2020</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2564,31 +2565,31 @@
         <v>2020</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2599,31 +2600,31 @@
         <v>2020</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2634,31 +2635,31 @@
         <v>2020</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2675,25 +2676,25 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2713,22 +2714,22 @@
         <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2739,31 +2740,31 @@
         <v>2020</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -2780,25 +2781,25 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s">
         <v>88</v>
       </c>
-      <c r="I54" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" t="s">
-        <v>89</v>
-      </c>
       <c r="K54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -2809,31 +2810,31 @@
         <v>2020</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2844,31 +2845,31 @@
         <v>2020</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2879,31 +2880,31 @@
         <v>2020</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -2914,31 +2915,31 @@
         <v>2020</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2955,25 +2956,25 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -2993,22 +2994,22 @@
         <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -3019,31 +3020,31 @@
         <v>2020</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -3060,25 +3061,25 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -3089,31 +3090,31 @@
         <v>2020</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -3124,31 +3125,31 @@
         <v>2020</v>
       </c>
       <c r="D64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -3159,25 +3160,25 @@
         <v>2020</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -3193,18 +3194,18 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="34.796875" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>1730417</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>526649</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>1655181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>1429475</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>526649</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>902826</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>526649</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3343,13 +3344,13 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2020</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2021</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2023</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2024</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2025</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2026</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2027</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2028</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2029</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2030</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2031</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2032</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2033</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2034</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2035</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2036</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2037</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2038</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2039</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2040</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2041</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2042</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2043</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2044</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2045</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2046</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2047</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2048</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2049</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2050</v>
       </c>
@@ -3618,13 +3619,13 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.296875" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3791,22 +3792,22 @@
       <selection activeCell="A8" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3876,14 +3877,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4168,18 +4169,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEEDCD5-4E90-D94F-86A6-8A170052F55D}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.296875" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" customWidth="1"/>
+    <col min="3" max="3" width="38.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4190,711 +4191,716 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="8">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="8">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="C47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="C48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
       </c>
-      <c r="C56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>23</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
         <v>39</v>
       </c>
-      <c r="C57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
       </c>
-      <c r="C65" t="s">
-        <v>83</v>
+      <c r="C65" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{DDEEDCD5-4E90-D94F-86A6-8A170052F55D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C65">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4907,14 +4913,14 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="46.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4928,13 +4934,13 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4954,7 +4960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5008,13 +5014,13 @@
         <v>2020</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5054,7 +5060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5094,7 +5100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5108,13 +5114,13 @@
         <v>2020</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5128,13 +5134,13 @@
         <v>2020</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5148,13 +5154,13 @@
         <v>2020</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5168,13 +5174,13 @@
         <v>2020</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -5188,13 +5194,13 @@
         <v>2020</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5208,13 +5214,13 @@
         <v>2020</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5228,13 +5234,13 @@
         <v>2020</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5248,13 +5254,13 @@
         <v>2020</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5274,7 +5280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -5294,7 +5300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -5308,13 +5314,13 @@
         <v>2020</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -5334,7 +5340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -5354,7 +5360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5374,7 +5380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5394,7 +5400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5414,7 +5420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -5454,7 +5460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -5488,13 +5494,13 @@
         <v>2020</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -5514,7 +5520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -5534,7 +5540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -5574,7 +5580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -5588,13 +5594,13 @@
         <v>2020</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -5608,13 +5614,13 @@
         <v>2020</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F35">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -5628,13 +5634,13 @@
         <v>2020</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -5668,13 +5674,13 @@
         <v>2020</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -5688,13 +5694,13 @@
         <v>2020</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -5708,13 +5714,13 @@
         <v>2020</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -5728,13 +5734,13 @@
         <v>2020</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -5748,13 +5754,13 @@
         <v>2020</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -5774,7 +5780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -5808,13 +5814,13 @@
         <v>2020</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F45">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -5834,7 +5840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -5854,7 +5860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -5868,13 +5874,13 @@
         <v>2020</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -5888,13 +5894,13 @@
         <v>2020</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -5928,13 +5934,13 @@
         <v>2020</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -5954,7 +5960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -5974,7 +5980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -5988,13 +5994,13 @@
         <v>2020</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -6008,13 +6014,13 @@
         <v>2020</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F55">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -6034,7 +6040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -6068,13 +6074,13 @@
         <v>2020</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -6088,13 +6094,13 @@
         <v>2020</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F59">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -6108,13 +6114,13 @@
         <v>2020</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F60">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -6128,13 +6134,13 @@
         <v>2020</v>
       </c>
       <c r="E61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F61">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -6148,13 +6154,13 @@
         <v>2020</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F62">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -6168,13 +6174,13 @@
         <v>2020</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F63">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -6188,13 +6194,13 @@
         <v>2020</v>
       </c>
       <c r="E64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F64">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6208,13 +6214,13 @@
         <v>2020</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F65">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -6228,13 +6234,13 @@
         <v>2025</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F66">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -6254,7 +6260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -6294,7 +6300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -6314,7 +6320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -6334,7 +6340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -6374,7 +6380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -6388,13 +6394,13 @@
         <v>2025</v>
       </c>
       <c r="E74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F74">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -6408,13 +6414,13 @@
         <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F75">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -6428,13 +6434,13 @@
         <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F76">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -6448,13 +6454,13 @@
         <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F77">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -6468,13 +6474,13 @@
         <v>2025</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F78">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -6488,13 +6494,13 @@
         <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F79">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -6508,13 +6514,13 @@
         <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F80">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -6528,13 +6534,13 @@
         <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F81">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -6548,13 +6554,13 @@
         <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F82">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -6568,13 +6574,13 @@
         <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F83">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -6588,13 +6594,13 @@
         <v>2025</v>
       </c>
       <c r="E84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -6608,13 +6614,13 @@
         <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -6628,13 +6634,13 @@
         <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F86">
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -6648,13 +6654,13 @@
         <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F87">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -6668,13 +6674,13 @@
         <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F88">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -6688,13 +6694,13 @@
         <v>2025</v>
       </c>
       <c r="E89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F89">
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -6708,13 +6714,13 @@
         <v>2025</v>
       </c>
       <c r="E90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F90">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -6734,7 +6740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -6748,13 +6754,13 @@
         <v>2025</v>
       </c>
       <c r="E92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F92">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -6768,13 +6774,13 @@
         <v>2025</v>
       </c>
       <c r="E93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F93">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -6788,13 +6794,13 @@
         <v>2025</v>
       </c>
       <c r="E94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F94">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -6808,13 +6814,13 @@
         <v>2025</v>
       </c>
       <c r="E95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F95">
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -6828,13 +6834,13 @@
         <v>2025</v>
       </c>
       <c r="E96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F96">
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -6848,13 +6854,13 @@
         <v>2025</v>
       </c>
       <c r="E97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F97">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -6874,7 +6880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -6888,13 +6894,13 @@
         <v>2025</v>
       </c>
       <c r="E99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F99">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -6914,7 +6920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -6928,13 +6934,13 @@
         <v>2025</v>
       </c>
       <c r="E101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F101">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -6948,13 +6954,13 @@
         <v>2025</v>
       </c>
       <c r="E102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F102">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -6968,13 +6974,13 @@
         <v>2025</v>
       </c>
       <c r="E103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F103">
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -6988,13 +6994,13 @@
         <v>2025</v>
       </c>
       <c r="E104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F104">
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -7008,13 +7014,13 @@
         <v>2025</v>
       </c>
       <c r="E105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F105">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -7028,13 +7034,13 @@
         <v>2025</v>
       </c>
       <c r="E106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F106">
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -7048,13 +7054,13 @@
         <v>2025</v>
       </c>
       <c r="E107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F107">
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -7068,13 +7074,13 @@
         <v>2025</v>
       </c>
       <c r="E108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F108">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -7088,13 +7094,13 @@
         <v>2025</v>
       </c>
       <c r="E109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F109">
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -7114,7 +7120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -7134,7 +7140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -7148,13 +7154,13 @@
         <v>2025</v>
       </c>
       <c r="E112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F112">
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -7168,13 +7174,13 @@
         <v>2025</v>
       </c>
       <c r="E113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F113">
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -7188,13 +7194,13 @@
         <v>2025</v>
       </c>
       <c r="E114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F114">
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -7214,7 +7220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -7248,13 +7254,13 @@
         <v>2025</v>
       </c>
       <c r="E117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F117">
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7274,7 +7280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -7294,7 +7300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -7308,13 +7314,13 @@
         <v>2025</v>
       </c>
       <c r="E120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F120">
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -7328,13 +7334,13 @@
         <v>2025</v>
       </c>
       <c r="E121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F121">
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -7348,13 +7354,13 @@
         <v>2025</v>
       </c>
       <c r="E122" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F122">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -7368,13 +7374,13 @@
         <v>2025</v>
       </c>
       <c r="E123" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F123">
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -7388,13 +7394,13 @@
         <v>2025</v>
       </c>
       <c r="E124" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F124">
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -7408,13 +7414,13 @@
         <v>2025</v>
       </c>
       <c r="E125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F125">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7428,13 +7434,13 @@
         <v>2025</v>
       </c>
       <c r="E126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F126">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -7448,13 +7454,13 @@
         <v>2025</v>
       </c>
       <c r="E127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F127">
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -7468,13 +7474,13 @@
         <v>2025</v>
       </c>
       <c r="E128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F128">
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v>2025</v>
       </c>
       <c r="E129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F129">
         <v>50</v>
@@ -7507,15 +7513,15 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.19921875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.296875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7523,10 +7529,10 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -7534,10 +7540,10 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7545,10 +7551,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7556,10 +7562,10 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7567,10 +7573,10 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -7578,10 +7584,10 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -7589,10 +7595,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -7600,10 +7606,10 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -7611,10 +7617,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7622,10 +7628,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7633,10 +7639,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -7644,10 +7650,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -7655,10 +7661,10 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -7666,10 +7672,10 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -7677,10 +7683,10 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -7688,10 +7694,10 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -7699,10 +7705,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -7710,10 +7716,10 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -7724,7 +7730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -7732,10 +7738,10 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -7743,10 +7749,10 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -7754,10 +7760,10 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -7768,7 +7774,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7776,10 +7782,10 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -7787,10 +7793,10 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -7801,7 +7807,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -7809,10 +7815,10 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -7820,10 +7826,10 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -7831,10 +7837,10 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -7842,10 +7848,10 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -7853,10 +7859,10 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -7864,10 +7870,10 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -7875,10 +7881,10 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -7889,7 +7895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -7897,10 +7903,10 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -7911,7 +7917,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -7919,10 +7925,10 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -7930,10 +7936,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -7941,10 +7947,10 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -7955,7 +7961,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -7966,7 +7972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -7974,10 +7980,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -7988,7 +7994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -7996,10 +8002,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -8007,10 +8013,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -8018,10 +8024,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -8029,10 +8035,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -8040,10 +8046,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -8051,10 +8057,10 @@
         <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -8062,10 +8068,10 @@
         <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -8073,10 +8079,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -8084,10 +8090,10 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -8095,10 +8101,10 @@
         <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -8106,10 +8112,10 @@
         <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -8117,10 +8123,10 @@
         <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -8128,10 +8134,10 @@
         <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -8139,7 +8145,7 @@
         <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
